--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CDYCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +935,8 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -916,17 +944,23 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,41 +1003,47 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>300</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1124,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1255,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1305,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,31 +1355,31 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,60 +1390,72 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>-100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -1380,26 +1472,32 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1855,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2235,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2088,19 +2274,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,34 +2359,40 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2205,64 +2409,70 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
-        <v>900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1700</v>
-      </c>
       <c r="I47" s="3">
+        <v>800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2270,57 +2480,69 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F48" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G48" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H48" s="3">
-        <v>3500</v>
+        <v>4900</v>
       </c>
       <c r="I48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2469,13 +2709,13 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E54" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F54" s="3">
-        <v>5700</v>
+        <v>5100</v>
       </c>
       <c r="G54" s="3">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="H54" s="3">
         <v>5500</v>
       </c>
       <c r="I54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2879,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2652,92 +2914,104 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2746,80 +3020,92 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="F61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K61" s="3">
         <v>1800</v>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R61" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2856,20 +3148,20 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="O66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-125100</v>
+        <v>-121000</v>
       </c>
       <c r="E72" s="3">
-        <v>-125000</v>
+        <v>-120700</v>
       </c>
       <c r="F72" s="3">
-        <v>-124300</v>
+        <v>-120800</v>
       </c>
       <c r="G72" s="3">
-        <v>-123100</v>
+        <v>-120600</v>
       </c>
       <c r="H72" s="3">
-        <v>-122600</v>
+        <v>-120000</v>
       </c>
       <c r="I72" s="3">
-        <v>-122200</v>
+        <v>-118800</v>
       </c>
       <c r="J72" s="3">
-        <v>-121900</v>
+        <v>-118300</v>
       </c>
       <c r="K72" s="3">
         <v>-122200</v>
       </c>
       <c r="L72" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-121500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-125200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-125000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-125600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-125600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>500</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4540,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>100</v>
-      </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -4122,16 +4582,22 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CDYCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,14 +954,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -956,11 +969,14 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,44 +1025,47 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>600</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,34 +1161,34 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1171,13 +1197,16 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,34 +1214,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-700</v>
-      </c>
       <c r="I18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
@@ -1221,13 +1250,16 @@
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,32 +1288,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-400</v>
-      </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1288,16 +1321,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,60 +1341,63 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1366,11 +1405,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1378,11 +1417,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1396,70 +1435,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1478,11 +1523,11 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1490,14 +1535,17 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,32 +1924,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>400</v>
-      </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1888,66 +1957,72 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2153,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2165,34 +2251,37 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2262,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2271,19 +2363,19 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2365,34 +2463,37 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,7 +2501,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2415,43 +2516,46 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
       </c>
       <c r="O46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
@@ -2459,23 +2563,23 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J47" s="3">
+        <v>900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -2486,63 +2590,69 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F48" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G48" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="H48" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I48" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="J48" s="3">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
       </c>
       <c r="L48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2715,10 +2834,10 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="E54" s="3">
-        <v>4900</v>
+        <v>5500</v>
       </c>
       <c r="F54" s="3">
         <v>5100</v>
       </c>
       <c r="G54" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="H54" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="I54" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K54" s="3">
         <v>5300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5400</v>
       </c>
       <c r="L54" s="3">
         <v>5400</v>
       </c>
       <c r="M54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N54" s="3">
         <v>3800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
@@ -2896,19 +3026,19 @@
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -2920,51 +3050,54 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2973,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -2981,19 +3114,22 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3002,19 +3138,19 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3026,89 +3162,95 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
-        <v>2300</v>
-      </c>
       <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="F61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1800</v>
       </c>
       <c r="L61" s="3">
         <v>1800</v>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3154,8 +3299,8 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3163,8 +3308,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3000</v>
-      </c>
       <c r="J66" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>2800</v>
       </c>
       <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3900</v>
       </c>
       <c r="Q66" s="3">
         <v>3900</v>
       </c>
       <c r="R66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-121000</v>
+        <v>-126900</v>
       </c>
       <c r="E72" s="3">
-        <v>-120700</v>
+        <v>-126800</v>
       </c>
       <c r="F72" s="3">
-        <v>-120800</v>
+        <v>-126400</v>
       </c>
       <c r="G72" s="3">
-        <v>-120600</v>
+        <v>-126500</v>
       </c>
       <c r="H72" s="3">
-        <v>-120000</v>
+        <v>-126300</v>
       </c>
       <c r="I72" s="3">
-        <v>-118800</v>
+        <v>-125700</v>
       </c>
       <c r="J72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-118300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-121900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-122200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-121500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-125200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-125000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-125600</v>
       </c>
       <c r="R72" s="3">
         <v>-125600</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-125600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
-        <v>1200</v>
-      </c>
       <c r="H76" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="I76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2900</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4414,40 +4634,43 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,34 +4772,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -4588,16 +4817,19 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
-        <v>100</v>
-      </c>
       <c r="R94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4928,42 +5179,45 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CDYCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,14 +971,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -972,11 +986,14 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,47 +1045,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,34 +1191,34 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1200,13 +1227,16 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,34 +1247,34 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-800</v>
       </c>
       <c r="J18" s="3">
         <v>-800</v>
       </c>
       <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
@@ -1253,13 +1283,16 @@
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,35 +1322,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1324,16 +1358,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,13 +1434,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1408,11 +1448,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1420,11 +1460,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1502,12 +1548,12 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1526,11 +1572,11 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1538,14 +1584,17 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,35 +1994,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1960,69 +2030,75 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2242,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2254,34 +2341,37 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2366,19 +2459,19 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,39 +2565,42 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2519,34 +2621,37 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1100</v>
       </c>
       <c r="O46" s="3">
         <v>1100</v>
       </c>
       <c r="P46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,11 +2659,11 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
@@ -2566,23 +2671,23 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -2593,66 +2698,72 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>1600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5000</v>
-      </c>
       <c r="G48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H48" s="3">
         <v>5200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5100</v>
       </c>
       <c r="I48" s="3">
         <v>5100</v>
       </c>
       <c r="J48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3400</v>
       </c>
       <c r="L48" s="3">
         <v>3400</v>
       </c>
       <c r="M48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2837,10 +2957,10 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,52 +3051,55 @@
         <v>5500</v>
       </c>
       <c r="E54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F54" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="G54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I54" s="3">
         <v>5300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5700</v>
       </c>
       <c r="J54" s="3">
         <v>5800</v>
       </c>
       <c r="K54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L54" s="3">
         <v>5300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5400</v>
       </c>
       <c r="M54" s="3">
         <v>5400</v>
       </c>
       <c r="N54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,7 +3160,7 @@
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -3038,10 +3169,10 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3053,19 +3184,22 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,32 +3209,32 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3109,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,13 +3263,13 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -3141,19 +3278,19 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3165,66 +3302,72 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
-        <v>2100</v>
-      </c>
       <c r="I60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,13 +3375,13 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1800</v>
       </c>
       <c r="H61" s="3">
         <v>1800</v>
@@ -3250,10 +3393,10 @@
         <v>1800</v>
       </c>
       <c r="K61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L61" s="3">
         <v>1700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1800</v>
       </c>
       <c r="M61" s="3">
         <v>1800</v>
@@ -3276,34 +3419,37 @@
       <c r="S61" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3655,55 @@
         <v>3200</v>
       </c>
       <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4200</v>
       </c>
       <c r="G66" s="3">
         <v>4200</v>
       </c>
       <c r="H66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2800</v>
       </c>
       <c r="L66" s="3">
         <v>2800</v>
       </c>
       <c r="M66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3900</v>
       </c>
       <c r="R66" s="3">
         <v>3900</v>
       </c>
       <c r="S66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-126900</v>
+        <v>-128500</v>
       </c>
       <c r="E72" s="3">
-        <v>-126800</v>
+        <v>-128400</v>
       </c>
       <c r="F72" s="3">
-        <v>-126400</v>
+        <v>-128200</v>
       </c>
       <c r="G72" s="3">
-        <v>-126500</v>
+        <v>-127900</v>
       </c>
       <c r="H72" s="3">
-        <v>-126300</v>
+        <v>-128000</v>
       </c>
       <c r="I72" s="3">
-        <v>-125700</v>
+        <v>-127800</v>
       </c>
       <c r="J72" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-124400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-118300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-121900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-121500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-125200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-125000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-125600</v>
       </c>
       <c r="S72" s="3">
         <v>-125600</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-125600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,52 +4181,55 @@
         <v>2300</v>
       </c>
       <c r="E76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
-        <v>900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,52 +4768,55 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -4637,40 +4858,43 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,37 +5002,40 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -4820,16 +5050,19 @@
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
-        <v>100</v>
-      </c>
       <c r="S94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,42 +5434,45 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CDYCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +1002,8 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -983,17 +1011,23 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,53 +1082,59 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1242,61 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1304,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,52 +1393,58 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,52 +1455,58 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1517,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1446,31 +1526,31 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,8 +1561,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,52 +1579,58 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>500</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1551,15 +1643,15 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1575,26 +1667,32 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,52 +1765,58 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>500</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,52 +1827,58 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="P27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
+        <v>600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,52 +2137,58 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,52 +2199,58 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="P33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
+        <v>600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,113 +2323,125 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="P35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
+        <v>600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2332,46 +2506,52 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,22 +2559,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2453,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2471,19 +2657,25 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,16 +2730,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2568,45 +2766,51 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2624,76 +2828,82 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
-        <v>200</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
@@ -2701,69 +2911,81 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>1600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="J48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3164,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2960,13 +3200,13 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>5400</v>
       </c>
-      <c r="N54" s="3">
-        <v>5400</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,22 +3425,22 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3187,116 +3449,128 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
-        <v>900</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3305,104 +3579,116 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
-      </c>
       <c r="H60" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1800</v>
-      </c>
       <c r="I61" s="3">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="J61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K61" s="3">
         <v>1800</v>
       </c>
       <c r="L61" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M61" s="3">
         <v>1800</v>
       </c>
       <c r="N61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O61" s="3">
         <v>1800</v>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V61" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3448,23 +3740,23 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="N66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-128500</v>
+        <v>-132600</v>
       </c>
       <c r="E72" s="3">
-        <v>-128400</v>
+        <v>-132600</v>
       </c>
       <c r="F72" s="3">
-        <v>-128200</v>
+        <v>-132400</v>
       </c>
       <c r="G72" s="3">
-        <v>-127900</v>
+        <v>-132300</v>
       </c>
       <c r="H72" s="3">
-        <v>-128000</v>
+        <v>-132100</v>
       </c>
       <c r="I72" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-131800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-127800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-127100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-124400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-118300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-122200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-121900</v>
       </c>
       <c r="O72" s="3">
         <v>-122200</v>
       </c>
       <c r="P72" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-121500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-125200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-125000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-125600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-125600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2500</v>
       </c>
       <c r="M76" s="3">
         <v>2600</v>
       </c>
       <c r="N76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,52 +4747,58 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="P81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
+        <v>600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>500</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>500</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5277,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4855,46 +5297,52 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5023,25 +5483,25 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -5053,16 +5513,22 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
-        <v>100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,52 +5811,58 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>400</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5437,42 +5941,48 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F48" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G48" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="H48" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I48" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="J48" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K48" s="3">
         <v>5100</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5400</v>
-      </c>
       <c r="J54" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="K54" s="3">
         <v>5300</v>
@@ -3413,7 +3413,7 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -3425,7 +3425,7 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
@@ -3534,13 +3534,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1100</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="3">
         <v>1000</v>
@@ -3549,10 +3549,10 @@
         <v>1000</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3596,16 +3596,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="F60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
@@ -3614,7 +3614,7 @@
         <v>1500</v>
       </c>
       <c r="J60" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2200</v>
@@ -3667,16 +3667,16 @@
         <v>1600</v>
       </c>
       <c r="G61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J61" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K61" s="3">
         <v>1800</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3300</v>
-      </c>
       <c r="H66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I66" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J66" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K66" s="3">
         <v>4000</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-132600</v>
+        <v>-138700</v>
       </c>
       <c r="E72" s="3">
-        <v>-132600</v>
+        <v>-138600</v>
       </c>
       <c r="F72" s="3">
-        <v>-132400</v>
+        <v>-138400</v>
       </c>
       <c r="G72" s="3">
-        <v>-132300</v>
+        <v>-138300</v>
       </c>
       <c r="H72" s="3">
-        <v>-132100</v>
+        <v>-138100</v>
       </c>
       <c r="I72" s="3">
-        <v>-131700</v>
+        <v>-137700</v>
       </c>
       <c r="J72" s="3">
-        <v>-131800</v>
+        <v>-137800</v>
       </c>
       <c r="K72" s="3">
         <v>-127800</v>
@@ -4550,19 +4550,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E76" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F76" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G76" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="H76" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I76" s="3">
         <v>1000</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CDYCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,14 +1021,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1023,11 +1036,14 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1105,39 +1124,39 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,11 +1268,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -1254,34 +1280,34 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1290,13 +1316,16 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1316,34 +1345,34 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-400</v>
@@ -1352,13 +1381,16 @@
         <v>-400</v>
       </c>
       <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,44 +1423,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1435,16 +1468,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-400</v>
       </c>
       <c r="S21" s="3">
         <v>-400</v>
       </c>
       <c r="T21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,13 +1562,13 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1537,11 +1576,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1549,11 +1588,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1567,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,61 +1618,64 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,12 +1694,12 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1673,11 +1718,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1685,14 +1730,17 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,61 +1813,64 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,61 +1878,64 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,44 +2203,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2179,16 +2248,19 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,61 +2268,64 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,128 +2398,134 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2512,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2524,34 +2610,37 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2559,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2576,8 +2665,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2645,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2654,19 +2746,19 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2846,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2772,34 +2870,37 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,61 +2908,64 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1100</v>
       </c>
       <c r="R46" s="3">
         <v>1100</v>
       </c>
       <c r="S46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2871,18 +2975,18 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
-        <v>300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
@@ -2890,23 +2994,23 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
@@ -2917,75 +3021,81 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>1600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="F48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3400</v>
       </c>
       <c r="O48" s="3">
         <v>3400</v>
       </c>
       <c r="P48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,19 +3286,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3206,10 +3325,10 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="E54" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F54" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G54" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="H54" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I54" s="3">
         <v>5600</v>
       </c>
       <c r="J54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5800</v>
       </c>
       <c r="M54" s="3">
         <v>5800</v>
       </c>
       <c r="N54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O54" s="3">
         <v>5300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5400</v>
       </c>
       <c r="P54" s="3">
         <v>5400</v>
       </c>
       <c r="Q54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,16 +3533,17 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -3425,13 +3555,13 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
@@ -3440,10 +3570,10 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3455,30 +3585,33 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>1200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -3486,32 +3619,32 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3520,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3549,31 +3685,31 @@
         <v>1000</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3585,75 +3721,81 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="E60" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F60" s="3">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="G60" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
+        <v>500</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,25 +3803,25 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1500</v>
-      </c>
       <c r="I61" s="3">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="J61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1800</v>
       </c>
       <c r="L61" s="3">
         <v>1800</v>
@@ -3688,10 +3830,10 @@
         <v>1800</v>
       </c>
       <c r="N61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O61" s="3">
         <v>1700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1800</v>
       </c>
       <c r="P61" s="3">
         <v>1800</v>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3746,11 +3891,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3758,8 +3903,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H66" s="3">
         <v>3200</v>
       </c>
       <c r="I66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2800</v>
       </c>
       <c r="O66" s="3">
         <v>2800</v>
       </c>
       <c r="P66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3900</v>
       </c>
       <c r="U66" s="3">
         <v>3900</v>
       </c>
       <c r="V66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="W66" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-138700</v>
+        <v>-130500</v>
       </c>
       <c r="E72" s="3">
-        <v>-138600</v>
+        <v>-130400</v>
       </c>
       <c r="F72" s="3">
-        <v>-138400</v>
+        <v>-130300</v>
       </c>
       <c r="G72" s="3">
-        <v>-138300</v>
+        <v>-130100</v>
       </c>
       <c r="H72" s="3">
-        <v>-138100</v>
+        <v>-130000</v>
       </c>
       <c r="I72" s="3">
-        <v>-137700</v>
+        <v>-129800</v>
       </c>
       <c r="J72" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-137800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-127800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-127100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-124400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-118300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-122200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-121900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-122200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-121500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-125200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-125000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-125600</v>
       </c>
       <c r="V72" s="3">
         <v>-125600</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-125600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4553,61 +4738,64 @@
         <v>2300</v>
       </c>
       <c r="E76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,61 +4938,64 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,28 +5498,29 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -5309,40 +5529,43 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,37 +5703,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -5519,16 +5748,19 @@
         <v>-200</v>
       </c>
       <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
         <v>800</v>
       </c>
-      <c r="U94" s="3">
-        <v>100</v>
-      </c>
       <c r="V94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,13 +6171,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5947,42 +6198,45 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDYCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>CDYCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,14 +1038,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1039,11 +1053,14 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1127,39 +1147,39 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-2500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,11 +1298,11 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
@@ -1283,34 +1310,34 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1319,13 +1346,16 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,10 +1366,10 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1348,34 +1378,34 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-800</v>
       </c>
       <c r="N18" s="3">
         <v>-800</v>
       </c>
       <c r="O18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
@@ -1384,13 +1414,16 @@
         <v>-400</v>
       </c>
       <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,44 +1460,44 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1471,16 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,61 +1528,64 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-400</v>
       </c>
       <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,13 +1605,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1579,11 +1619,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1591,11 +1631,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
       </c>
       <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,12 +1743,12 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1721,11 +1767,11 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -1733,14 +1779,17 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-400</v>
       </c>
       <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,44 +2276,44 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2251,81 +2321,87 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,16 +2660,17 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2601,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2613,34 +2700,37 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2651,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2668,8 +2758,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2740,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2749,19 +2842,19 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,13 +2930,16 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2849,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2873,39 +2972,42 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2914,10 +3016,10 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2938,34 +3040,37 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1100</v>
       </c>
       <c r="S46" s="3">
         <v>1100</v>
       </c>
       <c r="T46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2978,18 +3083,18 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>200</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
@@ -2997,23 +3102,23 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1900</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
@@ -3024,78 +3129,84 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>1600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5200</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3400</v>
       </c>
       <c r="P48" s="3">
         <v>3400</v>
       </c>
       <c r="Q48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,11 +3420,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3328,10 +3448,10 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,19 +3542,22 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F54" s="3">
         <v>5500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5600</v>
       </c>
       <c r="G54" s="3">
         <v>5600</v>
@@ -3440,52 +3566,55 @@
         <v>5600</v>
       </c>
       <c r="I54" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5800</v>
       </c>
       <c r="N54" s="3">
         <v>5800</v>
       </c>
       <c r="O54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P54" s="3">
         <v>5300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5400</v>
       </c>
       <c r="Q54" s="3">
         <v>5400</v>
       </c>
       <c r="R54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3674,7 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -3561,10 +3692,10 @@
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -3573,10 +3704,10 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3588,19 +3719,22 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3613,8 +3747,8 @@
       <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>1200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3622,32 +3756,32 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3656,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,46 +3810,46 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1100</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3724,78 +3861,84 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1700</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,25 +3949,25 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>1600</v>
       </c>
       <c r="I61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1800</v>
       </c>
       <c r="M61" s="3">
         <v>1800</v>
@@ -3833,10 +3976,10 @@
         <v>1800</v>
       </c>
       <c r="O61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P61" s="3">
         <v>1700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1800</v>
       </c>
       <c r="Q61" s="3">
         <v>1800</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3894,11 +4040,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3300</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O66" s="3">
         <v>3200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2800</v>
       </c>
       <c r="P66" s="3">
         <v>2800</v>
       </c>
       <c r="Q66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3900</v>
       </c>
       <c r="V66" s="3">
         <v>3900</v>
       </c>
       <c r="W66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-130500</v>
+        <v>-131600</v>
       </c>
       <c r="E72" s="3">
-        <v>-130400</v>
+        <v>-131400</v>
       </c>
       <c r="F72" s="3">
-        <v>-130300</v>
+        <v>-131300</v>
       </c>
       <c r="G72" s="3">
-        <v>-130100</v>
+        <v>-131200</v>
       </c>
       <c r="H72" s="3">
-        <v>-130000</v>
+        <v>-131000</v>
       </c>
       <c r="I72" s="3">
-        <v>-129800</v>
+        <v>-130900</v>
       </c>
       <c r="J72" s="3">
+        <v>-130700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-129500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-127800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-127100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-124400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-118300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-122200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-121900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-122200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-121500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-125200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-125000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-125600</v>
       </c>
       <c r="W72" s="3">
         <v>-125600</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-125600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,64 +4924,67 @@
         <v>2300</v>
       </c>
       <c r="E76" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F76" s="3">
         <v>2200</v>
       </c>
       <c r="G76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5719,32 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -5532,40 +5753,43 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,49 +5921,52 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
@@ -5751,16 +5981,19 @@
         <v>-200</v>
       </c>
       <c r="U94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V94" s="3">
         <v>800</v>
       </c>
-      <c r="V94" s="3">
-        <v>100</v>
-      </c>
       <c r="W94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,16 +6423,19 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6201,42 +6453,45 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>900</v>
       </c>
     </row>
